--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,56 +468,228 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Per</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Herra23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12312123</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12312123</t>
-        </is>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>wd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Giskedalen 20</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>93895349</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12345678912345</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jondis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>jondeveeien 2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>132123231</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13213231232</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Else</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>elseveien123</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>47213456</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22022222222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>gud</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>giskedalen 21</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>93895349</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12344444444444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jesus</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Giskedalen 20</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>93895349</v>
+      </c>
+      <c r="F9" t="n">
+        <v>12345678912345</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>jan</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>giskedalen 21</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>93895349</v>
+      </c>
+      <c r="F10" t="n">
+        <v>12344444444444</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>wd</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Giskedalen 20</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>93895349</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12345678912345</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Marte</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Halle43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -704,7 +876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,13 +901,64 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>123000032</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>46876878654</t>
-        </is>
-      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>312312321323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>22222222222222</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>123000032</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>123000032</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -748,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -823,41 +1046,276 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ABC Kindergarten</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t xml:space="preserve">Sunshine Preschool	</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2024-10-30</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>800000</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ABC Kindergarten</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>300200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ABC Kindergarten</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ABC Kindergarten</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -971,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1122,121 +1122,73 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>ABC Kindergarten</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>2000000</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sunshine Preschool	</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024-10-29</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>10</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>ABC Kindergarten</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024-10-29</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>300200</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
         <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1250,11 +1202,11 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>10000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="10">
@@ -1262,16 +1214,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1279,7 +1231,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>ABC Kindergarten</t>
+          <t xml:space="preserve">Sunshine Preschool	</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -1289,7 +1241,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>20000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1297,25 +1249,130 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ABC Kindergarten</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>300200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ABC Kindergarten</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ABC Kindergarten</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
